--- a/Resultados/field_100ha_100ha_10%_12m_0_LM/Planilha_Unificada.xlsx
+++ b/Resultados/field_100ha_100ha_10%_12m_0_LM/Planilha_Unificada.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://xmobotsaeroespacial-my.sharepoint.com/personal/paulo_acorinte_xmobots_com_br/Documents/Área de Trabalho/Repositorios/simulador/Resultados/field_100ha_100ha_10%_12m_0_LM/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="189" documentId="11_43EC65472225CC0F1F955AAC9A9CB7FE53C3DA59" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E767F374-EF87-479F-86E3-A74AD8BA4C94}"/>
+  <xr:revisionPtr revIDLastSave="190" documentId="11_43EC65472225CC0F1F955AAC9A9CB7FE53C3DA59" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4BE7A2FC-B83A-45FD-9C0E-95436CDD2E74}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="690" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="691" uniqueCount="60">
   <si>
     <t>Unnamed: 0</t>
   </si>
@@ -232,6 +232,9 @@
   </si>
   <si>
     <t>Resultado 18</t>
+  </si>
+  <si>
+    <t>eld_100ha_100ha_10%_12m_0_LM\</t>
   </si>
 </sst>
 </file>
@@ -2369,13 +2372,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EB4F31F-106E-4966-B146-3C8EC11B7801}">
   <sheetPr codeName="Planilha23"/>
-  <dimension ref="A1:M20"/>
+  <dimension ref="A1:P20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>33</v>
       </c>
@@ -2403,8 +2406,11 @@
       <c r="J1" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="P1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>40</v>
       </c>
@@ -2444,7 +2450,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>41</v>
       </c>
@@ -2475,7 +2481,7 @@
         <v>2.0794999999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>42</v>
       </c>
@@ -2506,7 +2512,7 @@
         <v>2.3315000000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>43</v>
       </c>
@@ -2537,7 +2543,7 @@
         <v>2.5066000000000002</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>44</v>
       </c>
@@ -2568,7 +2574,7 @@
         <v>2.6335000000000002</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>45</v>
       </c>
@@ -2599,7 +2605,7 @@
         <v>2.7349000000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>46</v>
       </c>
@@ -2630,7 +2636,7 @@
         <v>2.8184999999999998</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>47</v>
       </c>
@@ -2661,7 +2667,7 @@
         <v>2.8822999999999994</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>48</v>
       </c>
@@ -2692,7 +2698,7 @@
         <v>2.9350000000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>49</v>
       </c>
@@ -2723,7 +2729,7 @@
         <v>2.9767000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>50</v>
       </c>
@@ -2754,7 +2760,7 @@
         <v>3.0137</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>51</v>
       </c>
@@ -2785,7 +2791,7 @@
         <v>3.0396000000000005</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>52</v>
       </c>
@@ -2816,7 +2822,7 @@
         <v>3.0811000000000002</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>53</v>
       </c>
@@ -2847,7 +2853,7 @@
         <v>3.0931000000000002</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>54</v>
       </c>
